--- a/data.xlsx
+++ b/data.xlsx
@@ -5,11 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">Row</t>
   </si>
@@ -66,24 +65,6 @@
   </si>
   <si>
     <t xml:space="preserve">JJ7654321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jj100 devices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JJ100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JJ150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faulty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JM101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JJ101</t>
   </si>
 </sst>
 </file>
@@ -185,16 +166,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -274,26 +255,6 @@
         <v>14</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>41092</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>34234</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="n">
         <v>41092</v>
       </c>
     </row>
@@ -306,43 +267,4 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>